--- a/lookup table/20240827_ElecMat16 Lookup Table.xlsx
+++ b/lookup table/20240827_ElecMat16 Lookup Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Athena/GaTech Dropbox/Athena Chien/5pProtocolsPaper 2024/16HBE raw data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Athena/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D56E7D0-321B-4343-B0BC-809BB6268250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E060B133-C4CB-5E42-B858-DAB7AB1D6A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-48300" yWindow="-4840" windowWidth="33920" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-67180" yWindow="-5920" windowWidth="33920" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>plateID</t>
   </si>
@@ -118,12 +118,6 @@
     <t>RPMI_TW01_d9_endohm2_freq</t>
   </si>
   <si>
-    <t>noSoln_noTW_d7_channel1_modelCell_freq</t>
-  </si>
-  <si>
-    <t>noSoln_noTW_d8_channel1_modelCell_freq</t>
-  </si>
-  <si>
     <t>RPMI_TW02_d4_endohm1_freq</t>
   </si>
   <si>
@@ -133,9 +127,6 @@
     <t>16HBE_TW01_d3_endohm1_freq</t>
   </si>
   <si>
-    <t>noSoln_noTW_d3_channel1_modelCell_freq</t>
-  </si>
-  <si>
     <t>RPMI_TW03_d4_endohm1_freq</t>
   </si>
   <si>
@@ -154,9 +145,6 @@
     <t>RPMI_TW03_d6_endohm2_freq</t>
   </si>
   <si>
-    <t>noSoln_noTW_d4_channel1_modelCell_freq</t>
-  </si>
-  <si>
     <t>RPMI_TW04_d6_endohm2_freq</t>
   </si>
   <si>
@@ -181,15 +169,6 @@
     <t>RPMI_TW01_d4_endohm1_freq</t>
   </si>
   <si>
-    <t>RPMI_TW06_d7_endohm2_freq</t>
-  </si>
-  <si>
-    <t>noSoln_noTW_d9_channel1_modelCell_freq</t>
-  </si>
-  <si>
-    <t>noSoln_noTW_d6_channel1_modelCell_freq</t>
-  </si>
-  <si>
     <t>RPMI_TW02_d9_endohm2_freq</t>
   </si>
   <si>
@@ -197,9 +176,6 @@
   </si>
   <si>
     <t>RPMI_TW03_d9_endohm2_freq</t>
-  </si>
-  <si>
-    <t>noSoln_noTW_d5_channel1_modelCell_freq</t>
   </si>
   <si>
     <t>16HBE_TW04_d3_endohm1_freq</t>
@@ -588,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF37"/>
+  <dimension ref="A1:AF29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -710,7 +686,7 @@
         <v>32</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
@@ -721,7 +697,7 @@
         <v>33</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
@@ -765,7 +741,7 @@
         <v>37</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.2">
@@ -842,7 +818,7 @@
         <v>44</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.2">
@@ -891,7 +867,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>49</v>
@@ -902,7 +878,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>50</v>
@@ -913,7 +889,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>51</v>
@@ -924,7 +900,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>52</v>
@@ -935,7 +911,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>53</v>
@@ -946,29 +922,29 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>54</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>55</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>56</v>
@@ -979,7 +955,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>57</v>
@@ -990,100 +966,12 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>58</v>
       </c>
       <c r="K29">
-        <v>1.1200000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>59</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>60</v>
-      </c>
-      <c r="K31">
-        <v>1.1200000000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>61</v>
-      </c>
-      <c r="K32">
-        <v>1.1200000000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>62</v>
-      </c>
-      <c r="K33">
-        <v>1.1200000000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>63</v>
-      </c>
-      <c r="K34">
-        <v>1.1200000000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>64</v>
-      </c>
-      <c r="K35">
-        <v>1.1200000000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>65</v>
-      </c>
-      <c r="K36">
-        <v>1.1200000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>66</v>
-      </c>
-      <c r="K37">
         <v>1.1200000000000001</v>
       </c>
     </row>
